--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -486,9 +486,107 @@
         <v>354783</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2025-07-30T11:15:23.500Z</v>
+      </c>
+      <c r="B7" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C7" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D7">
+        <v>681528</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2025-07-30T11:16:12.189Z</v>
+      </c>
+      <c r="B8" t="str">
+        <v>arpit.s@quantasip.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D8">
+        <v>655744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2025-07-30T11:24:58.417Z</v>
+      </c>
+      <c r="B9" t="str">
+        <v>arpit.s@quantasip.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D9">
+        <v>755839</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2025-07-30T11:30:10.392Z</v>
+      </c>
+      <c r="B10" t="str">
+        <v>arpit.s@quantasip.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D10">
+        <v>739395</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2025-07-30T11:32:37.170Z</v>
+      </c>
+      <c r="B11" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D11">
+        <v>637007</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2025-07-30T11:36:36.098Z</v>
+      </c>
+      <c r="B12" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D12">
+        <v>118902</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2025-07-30T11:38:48.018Z</v>
+      </c>
+      <c r="B13" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D13">
+        <v>901258</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -584,9 +584,93 @@
         <v>901258</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2025-07-31T04:59:12.791Z</v>
+      </c>
+      <c r="B14" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D14">
+        <v>582834</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2025-07-31T05:00:19.028Z</v>
+      </c>
+      <c r="B15" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C15" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D15">
+        <v>947559</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2025-07-31T05:03:41.962Z</v>
+      </c>
+      <c r="B16" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C16" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D16">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2025-07-31T05:06:01.226Z</v>
+      </c>
+      <c r="B17" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C17" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D17">
+        <v>442704</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2025-07-31T05:22:19.516Z</v>
+      </c>
+      <c r="B18" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C18" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D18">
+        <v>269016</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2025-07-31T05:36:50.240Z</v>
+      </c>
+      <c r="B19" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D19">
+        <v>656820</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -668,9 +668,23 @@
         <v>656820</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2025-07-31T07:19:04.035Z</v>
+      </c>
+      <c r="B20" t="str">
+        <v>arpit.s@quantasip.com</v>
+      </c>
+      <c r="C20" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D20">
+        <v>859693</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -682,9 +682,23 @@
         <v>859693</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2025-07-31T11:45:02.957Z</v>
+      </c>
+      <c r="B21" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D21">
+        <v>420316</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -696,9 +696,51 @@
         <v>420316</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2025-08-01T04:25:18.872Z</v>
+      </c>
+      <c r="B22" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C22" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D22">
+        <v>886525</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2025-08-01T04:32:53.202Z</v>
+      </c>
+      <c r="B23" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C23" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D23">
+        <v>760238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2025-08-01T06:34:00.819Z</v>
+      </c>
+      <c r="B24" t="str">
+        <v>arpit.s@quantasip.com</v>
+      </c>
+      <c r="C24" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D24">
+        <v>668420</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -738,9 +738,191 @@
         <v>668420</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2025-08-01T11:53:19.336Z</v>
+      </c>
+      <c r="B25" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C25" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D25">
+        <v>968339</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2025-08-01T11:58:35.671Z</v>
+      </c>
+      <c r="B26" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C26" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D26">
+        <v>173848</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2025-08-01T12:03:54.682Z</v>
+      </c>
+      <c r="B27" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C27" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D27">
+        <v>257106</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025-08-01T12:09:29.934Z</v>
+      </c>
+      <c r="B28" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C28" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D28">
+        <v>263399</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2025-08-01T12:10:18.939Z</v>
+      </c>
+      <c r="B29" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C29" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D29">
+        <v>439262</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2025-08-01T12:18:14.700Z</v>
+      </c>
+      <c r="B30" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C30" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D30">
+        <v>800282</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2025-08-01T12:34:03.583Z</v>
+      </c>
+      <c r="B31" t="str">
+        <v>arpit.s@quantasip.com</v>
+      </c>
+      <c r="C31" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D31">
+        <v>977461</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2025-08-01T12:34:17.823Z</v>
+      </c>
+      <c r="B32" t="str">
+        <v>arpit.s@quantasip.com</v>
+      </c>
+      <c r="C32" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D32">
+        <v>820034</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2025-08-01T12:35:20.933Z</v>
+      </c>
+      <c r="B33" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C33" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D33">
+        <v>802532</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2025-08-01T12:36:46.167Z</v>
+      </c>
+      <c r="B34" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C34" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D34">
+        <v>533984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2025-08-01T12:38:57.785Z</v>
+      </c>
+      <c r="B35" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C35" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D35">
+        <v>908256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2025-08-01T12:46:16.842Z</v>
+      </c>
+      <c r="B36" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C36" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D36">
+        <v>465864</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2025-08-01T12:53:02.112Z</v>
+      </c>
+      <c r="B37" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C37" t="str">
+        <v>8303884098</v>
+      </c>
+      <c r="D37">
+        <v>401636</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -920,9 +920,37 @@
         <v>401636</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2025-08-04T08:32:59.957Z</v>
+      </c>
+      <c r="B38" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C38" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D38">
+        <v>956398</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2025-08-04T08:33:07.585Z</v>
+      </c>
+      <c r="B39" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C39" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D39">
+        <v>963214</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D39"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -948,9 +948,23 @@
         <v>963214</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2025-08-18T04:03:02.541Z</v>
+      </c>
+      <c r="B40" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C40" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D40">
+        <v>734466</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D40"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -962,9 +962,23 @@
         <v>734466</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2025-08-19T04:55:16.711Z</v>
+      </c>
+      <c r="B41" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C41" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D41">
+        <v>969366</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -976,9 +976,23 @@
         <v>969366</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2025-08-20T04:01:47.176Z</v>
+      </c>
+      <c r="B42" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C42" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D42">
+        <v>765420</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs/otp_logs.xlsx
+++ b/logs/otp_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -990,9 +990,37 @@
         <v>765420</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2025-08-21T04:50:14.385Z</v>
+      </c>
+      <c r="B43" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C43" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D43">
+        <v>328176</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2025-08-21T04:50:37.933Z</v>
+      </c>
+      <c r="B44" t="str">
+        <v>arpitsin28@gmail.com</v>
+      </c>
+      <c r="C44" t="str">
+        <v>9473733115</v>
+      </c>
+      <c r="D44">
+        <v>236059</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D44"/>
   </ignoredErrors>
 </worksheet>
 </file>